--- a/Data.xlsx
+++ b/Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aditmalhotra/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aditmalhotra/Documents/GitRepos/Majors_api/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FFC6BA-0520-6A4F-AF69-A1056924EF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE769E6D-7DE6-9F48-9D28-03ECB56282EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{B251DD3F-0841-D045-B37F-BED4BC94D881}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19240" xr2:uid="{B251DD3F-0841-D045-B37F-BED4BC94D881}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
         <rFont val="Courier New"/>
         <family val="1"/>
       </rPr>
-      <t>8:15-10:15</t>
+      <t>11:15-13:15</t>
     </r>
   </si>
   <si>
@@ -61,7 +61,7 @@
         <rFont val="Courier New"/>
         <family val="1"/>
       </rPr>
-      <t>11:15-13:15</t>
+      <t>14:15-16:15</t>
     </r>
   </si>
   <si>
@@ -72,7 +72,7 @@
         <rFont val="Courier New"/>
         <family val="1"/>
       </rPr>
-      <t>14:15-16:15</t>
+      <t>17:15-19:15</t>
     </r>
   </si>
   <si>
@@ -83,17 +83,6 @@
         <rFont val="Courier New"/>
         <family val="1"/>
       </rPr>
-      <t>17:15-19:15</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7.5"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
       <t>20:15-22:15</t>
     </r>
   </si>
@@ -6398,6 +6387,9 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>08:15-10:15</t>
   </si>
 </sst>
 </file>
@@ -6514,7 +6506,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6638,6 +6630,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6955,8 +6950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0688D7D3-AFEB-6E49-90A6-76C241054039}">
   <dimension ref="A1:H301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A267" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B265" sqref="B265"/>
+    <sheetView tabSelected="1" topLeftCell="A231" zoomScale="212" zoomScaleNormal="212" workbookViewId="0">
+      <selection activeCell="I237" sqref="I237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6966,30 +6961,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="42" t="s">
+        <v>616</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="5">
         <v>5</v>
@@ -6999,7 +6994,7 @@
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="9"/>
@@ -7007,7 +7002,7 @@
     </row>
     <row r="3" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="5">
         <v>5</v>
@@ -7017,17 +7012,17 @@
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>11</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="5">
         <v>5</v>
@@ -7037,7 +7032,7 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="9"/>
@@ -7045,7 +7040,7 @@
     </row>
     <row r="5" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="5">
         <v>5</v>
@@ -7055,7 +7050,7 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="9"/>
@@ -7063,7 +7058,7 @@
     </row>
     <row r="6" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="5">
         <v>5</v>
@@ -7073,7 +7068,7 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="9"/>
@@ -7081,7 +7076,7 @@
     </row>
     <row r="7" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="5">
         <v>5</v>
@@ -7090,22 +7085,22 @@
         <v>75</v>
       </c>
       <c r="D7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="8" t="s">
+      <c r="G7" s="13" t="s">
         <v>20</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>21</v>
       </c>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="5">
         <v>5</v>
@@ -7114,20 +7109,20 @@
         <v>75</v>
       </c>
       <c r="D8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="F8" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" s="5">
         <v>5</v>
@@ -7136,20 +7131,20 @@
         <v>75</v>
       </c>
       <c r="D9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="F9" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>29</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" s="5">
         <v>5</v>
@@ -7159,19 +7154,19 @@
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="G10" s="17" t="s">
         <v>32</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>33</v>
       </c>
       <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="5">
         <v>5</v>
@@ -7180,20 +7175,20 @@
         <v>75</v>
       </c>
       <c r="D11" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="16" t="s">
         <v>35</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>36</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" s="5">
         <v>5</v>
@@ -7202,20 +7197,20 @@
         <v>75</v>
       </c>
       <c r="D12" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="16" t="s">
         <v>39</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>40</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H12" s="10"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13" s="5">
         <v>5</v>
@@ -7225,17 +7220,17 @@
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B14" s="5">
         <v>5</v>
@@ -7244,18 +7239,18 @@
         <v>75</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15" s="5">
         <v>5</v>
@@ -7271,7 +7266,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B16" s="5">
         <v>5</v>
@@ -7280,18 +7275,18 @@
         <v>75</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="7"/>
       <c r="G16" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17" s="5">
         <v>5</v>
@@ -7300,20 +7295,20 @@
         <v>75</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="17" t="s">
         <v>54</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>55</v>
       </c>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B18" s="5">
         <v>5</v>
@@ -7322,7 +7317,7 @@
         <v>75</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="7"/>
@@ -7331,7 +7326,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B19" s="5">
         <v>5</v>
@@ -7340,7 +7335,7 @@
         <v>30</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
@@ -7349,7 +7344,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B20" s="5">
         <v>5</v>
@@ -7358,7 +7353,7 @@
         <v>30</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
@@ -7367,7 +7362,7 @@
     </row>
     <row r="21" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B21" s="5">
         <v>5</v>
@@ -7376,20 +7371,20 @@
         <v>30</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="17" t="s">
         <v>62</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>63</v>
       </c>
       <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B22" s="5">
         <v>5</v>
@@ -7405,7 +7400,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B23" s="5">
         <v>5</v>
@@ -7421,7 +7416,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B24" s="5">
         <v>5</v>
@@ -7430,7 +7425,7 @@
         <v>30</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
@@ -7439,7 +7434,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B25" s="5">
         <v>5</v>
@@ -7448,7 +7443,7 @@
         <v>30</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
@@ -7457,7 +7452,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B26" s="5">
         <v>5</v>
@@ -7466,7 +7461,7 @@
         <v>30</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
@@ -7475,7 +7470,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B27" s="5">
         <v>5</v>
@@ -7484,7 +7479,7 @@
         <v>30</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
@@ -7493,7 +7488,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B28" s="5">
         <v>5</v>
@@ -7502,18 +7497,18 @@
         <v>30</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
       <c r="G28" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H28" s="10"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B29" s="5">
         <v>5</v>
@@ -7522,18 +7517,18 @@
         <v>30</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
       <c r="G29" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H29" s="10"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B30" s="5">
         <v>5</v>
@@ -7542,18 +7537,18 @@
         <v>30</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
       <c r="G30" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H30" s="10"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B31" s="5">
         <v>5</v>
@@ -7562,18 +7557,18 @@
         <v>30</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
       <c r="G31" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H31" s="10"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B32" s="5">
         <v>5</v>
@@ -7582,18 +7577,18 @@
         <v>30</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
       <c r="G32" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H32" s="10"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B33" s="5">
         <v>5</v>
@@ -7602,20 +7597,20 @@
         <v>15</v>
       </c>
       <c r="D33" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E33" s="16" t="s">
         <v>90</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>91</v>
       </c>
       <c r="F33" s="12"/>
       <c r="G33" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H33" s="10"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B34" s="5">
         <v>5</v>
@@ -7624,18 +7619,18 @@
         <v>15</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
       <c r="G34" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H34" s="10"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B35" s="5">
         <v>5</v>
@@ -7644,18 +7639,18 @@
         <v>15</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
       <c r="G35" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H35" s="10"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B36" s="5">
         <v>5</v>
@@ -7664,18 +7659,18 @@
         <v>15</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
       <c r="G36" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H36" s="10"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B37" s="5">
         <v>5</v>
@@ -7684,18 +7679,18 @@
         <v>15</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
       <c r="G37" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H37" s="10"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B38" s="5">
         <v>5</v>
@@ -7704,18 +7699,18 @@
         <v>15</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E38" s="12"/>
       <c r="F38" s="12"/>
       <c r="G38" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H38" s="10"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B39" s="5">
         <v>5</v>
@@ -7724,18 +7719,18 @@
         <v>25</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E39" s="12"/>
       <c r="F39" s="12"/>
       <c r="G39" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H39" s="10"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B40" s="5">
         <v>5</v>
@@ -7744,18 +7739,18 @@
         <v>25</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E40" s="12"/>
       <c r="F40" s="12"/>
       <c r="G40" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H40" s="10"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B41" s="40">
         <v>6</v>
@@ -7765,7 +7760,7 @@
       </c>
       <c r="D41" s="20"/>
       <c r="E41" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F41" s="20"/>
       <c r="G41" s="22"/>
@@ -7773,7 +7768,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B42" s="40">
         <v>6</v>
@@ -7783,7 +7778,7 @@
       </c>
       <c r="D42" s="20"/>
       <c r="E42" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F42" s="23"/>
       <c r="G42" s="22"/>
@@ -7791,7 +7786,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B43" s="40">
         <v>6</v>
@@ -7801,7 +7796,7 @@
       </c>
       <c r="D43" s="20"/>
       <c r="E43" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F43" s="20"/>
       <c r="G43" s="22"/>
@@ -7809,7 +7804,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B44" s="40">
         <v>6</v>
@@ -7819,7 +7814,7 @@
       </c>
       <c r="D44" s="20"/>
       <c r="E44" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F44" s="20"/>
       <c r="G44" s="22"/>
@@ -7827,7 +7822,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B45" s="40">
         <v>6</v>
@@ -7838,14 +7833,14 @@
       <c r="D45" s="20"/>
       <c r="E45" s="24"/>
       <c r="F45" s="25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G45" s="22"/>
       <c r="H45" s="22"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B46" s="40">
         <v>6</v>
@@ -7854,10 +7849,10 @@
         <v>75</v>
       </c>
       <c r="D46" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="E46" s="21" t="s">
         <v>123</v>
-      </c>
-      <c r="E46" s="21" t="s">
-        <v>124</v>
       </c>
       <c r="F46" s="23"/>
       <c r="G46" s="22"/>
@@ -7865,7 +7860,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B47" s="40">
         <v>6</v>
@@ -7874,10 +7869,10 @@
         <v>75</v>
       </c>
       <c r="D47" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="E47" s="21" t="s">
         <v>126</v>
-      </c>
-      <c r="E47" s="21" t="s">
-        <v>127</v>
       </c>
       <c r="F47" s="23"/>
       <c r="G47" s="22"/>
@@ -7885,7 +7880,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B48" s="40">
         <v>6</v>
@@ -7895,17 +7890,17 @@
       </c>
       <c r="D48" s="24"/>
       <c r="E48" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F48" s="25" t="s">
         <v>129</v>
-      </c>
-      <c r="F48" s="25" t="s">
-        <v>130</v>
       </c>
       <c r="G48" s="22"/>
       <c r="H48" s="22"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B49" s="40">
         <v>6</v>
@@ -7915,7 +7910,7 @@
       </c>
       <c r="D49" s="20"/>
       <c r="E49" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F49" s="23"/>
       <c r="G49" s="22"/>
@@ -7923,7 +7918,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B50" s="40">
         <v>6</v>
@@ -7932,18 +7927,18 @@
         <v>75</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E50" s="24"/>
       <c r="F50" s="25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G50" s="22"/>
       <c r="H50" s="22"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B51" s="40">
         <v>6</v>
@@ -7952,18 +7947,18 @@
         <v>75</v>
       </c>
       <c r="D51" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E51" s="24"/>
       <c r="F51" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G51" s="22"/>
       <c r="H51" s="22"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B52" s="40">
         <v>6</v>
@@ -7972,18 +7967,18 @@
         <v>75</v>
       </c>
       <c r="D52" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E52" s="24"/>
       <c r="F52" s="25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G52" s="22"/>
       <c r="H52" s="22"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B53" s="40">
         <v>6</v>
@@ -7992,18 +7987,18 @@
         <v>75</v>
       </c>
       <c r="D53" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E53" s="24"/>
       <c r="F53" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G53" s="22"/>
       <c r="H53" s="22"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B54" s="40">
         <v>6</v>
@@ -8019,7 +8014,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B55" s="40">
         <v>6</v>
@@ -8028,7 +8023,7 @@
         <v>75</v>
       </c>
       <c r="D55" s="21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E55" s="24"/>
       <c r="F55" s="20"/>
@@ -8037,7 +8032,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B56" s="40">
         <v>6</v>
@@ -8046,7 +8041,7 @@
         <v>75</v>
       </c>
       <c r="D56" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E56" s="20"/>
       <c r="F56" s="23"/>
@@ -8055,7 +8050,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B57" s="40">
         <v>6</v>
@@ -8064,7 +8059,7 @@
         <v>75</v>
       </c>
       <c r="D57" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E57" s="24"/>
       <c r="F57" s="20"/>
@@ -8073,7 +8068,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B58" s="40">
         <v>6</v>
@@ -8082,7 +8077,7 @@
         <v>30</v>
       </c>
       <c r="D58" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E58" s="20"/>
       <c r="F58" s="20"/>
@@ -8091,7 +8086,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B59" s="40">
         <v>6</v>
@@ -8100,7 +8095,7 @@
         <v>30</v>
       </c>
       <c r="D59" s="21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E59" s="20"/>
       <c r="F59" s="20"/>
@@ -8109,7 +8104,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B60" s="40">
         <v>6</v>
@@ -8118,18 +8113,18 @@
         <v>30</v>
       </c>
       <c r="D60" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E60" s="24"/>
       <c r="F60" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G60" s="22"/>
       <c r="H60" s="22"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B61" s="40">
         <v>6</v>
@@ -8145,7 +8140,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B62" s="40">
         <v>6</v>
@@ -8161,7 +8156,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B63" s="40">
         <v>6</v>
@@ -8170,7 +8165,7 @@
         <v>30</v>
       </c>
       <c r="D63" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E63" s="20"/>
       <c r="F63" s="20"/>
@@ -8179,7 +8174,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B64" s="40">
         <v>6</v>
@@ -8188,7 +8183,7 @@
         <v>30</v>
       </c>
       <c r="D64" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E64" s="20"/>
       <c r="F64" s="20"/>
@@ -8197,7 +8192,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B65" s="40">
         <v>6</v>
@@ -8206,7 +8201,7 @@
         <v>30</v>
       </c>
       <c r="D65" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E65" s="20"/>
       <c r="F65" s="20"/>
@@ -8215,7 +8210,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B66" s="40">
         <v>6</v>
@@ -8224,7 +8219,7 @@
         <v>30</v>
       </c>
       <c r="D66" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E66" s="20"/>
       <c r="F66" s="20"/>
@@ -8233,7 +8228,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B67" s="40">
         <v>6</v>
@@ -8242,20 +8237,20 @@
         <v>30</v>
       </c>
       <c r="D67" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="E67" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="E67" s="21" t="s">
+      <c r="F67" s="25" t="s">
         <v>171</v>
-      </c>
-      <c r="F67" s="25" t="s">
-        <v>172</v>
       </c>
       <c r="G67" s="22"/>
       <c r="H67" s="22"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B68" s="40">
         <v>6</v>
@@ -8264,20 +8259,20 @@
         <v>30</v>
       </c>
       <c r="D68" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="E68" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="E68" s="21" t="s">
+      <c r="F68" s="25" t="s">
         <v>175</v>
-      </c>
-      <c r="F68" s="25" t="s">
-        <v>176</v>
       </c>
       <c r="G68" s="22"/>
       <c r="H68" s="22"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B69" s="40">
         <v>6</v>
@@ -8286,18 +8281,18 @@
         <v>30</v>
       </c>
       <c r="D69" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E69" s="24"/>
       <c r="F69" s="25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G69" s="22"/>
       <c r="H69" s="22"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B70" s="40">
         <v>6</v>
@@ -8306,18 +8301,18 @@
         <v>30</v>
       </c>
       <c r="D70" s="21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E70" s="24"/>
       <c r="F70" s="25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G70" s="22"/>
       <c r="H70" s="22"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B71" s="40">
         <v>6</v>
@@ -8326,18 +8321,18 @@
         <v>30</v>
       </c>
       <c r="D71" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E71" s="24"/>
       <c r="F71" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G71" s="22"/>
       <c r="H71" s="22"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B72" s="40">
         <v>6</v>
@@ -8346,20 +8341,20 @@
         <v>15</v>
       </c>
       <c r="D72" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="E72" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="E72" s="21" t="s">
+      <c r="F72" s="25" t="s">
         <v>188</v>
-      </c>
-      <c r="F72" s="25" t="s">
-        <v>189</v>
       </c>
       <c r="G72" s="22"/>
       <c r="H72" s="22"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B73" s="40">
         <v>6</v>
@@ -8368,18 +8363,18 @@
         <v>15</v>
       </c>
       <c r="D73" s="21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E73" s="24"/>
       <c r="F73" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G73" s="22"/>
       <c r="H73" s="22"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B74" s="40">
         <v>6</v>
@@ -8388,18 +8383,18 @@
         <v>15</v>
       </c>
       <c r="D74" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E74" s="24"/>
       <c r="F74" s="25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G74" s="22"/>
       <c r="H74" s="22"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B75" s="40">
         <v>6</v>
@@ -8408,18 +8403,18 @@
         <v>15</v>
       </c>
       <c r="D75" s="21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E75" s="24"/>
       <c r="F75" s="25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G75" s="22"/>
       <c r="H75" s="22"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B76" s="40">
         <v>6</v>
@@ -8428,18 +8423,18 @@
         <v>15</v>
       </c>
       <c r="D76" s="21" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E76" s="24"/>
       <c r="F76" s="25" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G76" s="22"/>
       <c r="H76" s="22"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B77" s="40">
         <v>7</v>
@@ -8449,17 +8444,17 @@
       </c>
       <c r="D77" s="20"/>
       <c r="E77" s="21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F77" s="20"/>
       <c r="G77" s="25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H77" s="22"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B78" s="40">
         <v>7</v>
@@ -8469,19 +8464,19 @@
       </c>
       <c r="D78" s="20"/>
       <c r="E78" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="F78" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="F78" s="25" t="s">
+      <c r="G78" s="25" t="s">
         <v>205</v>
-      </c>
-      <c r="G78" s="25" t="s">
-        <v>206</v>
       </c>
       <c r="H78" s="22"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B79" s="40">
         <v>7</v>
@@ -8491,17 +8486,17 @@
       </c>
       <c r="D79" s="20"/>
       <c r="E79" s="21" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F79" s="20"/>
       <c r="G79" s="25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H79" s="22"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B80" s="40">
         <v>7</v>
@@ -8511,17 +8506,17 @@
       </c>
       <c r="D80" s="20"/>
       <c r="E80" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F80" s="20"/>
       <c r="G80" s="25" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H80" s="22"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B81" s="40">
         <v>7</v>
@@ -8531,19 +8526,19 @@
       </c>
       <c r="D81" s="20"/>
       <c r="E81" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="F81" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="F81" s="25" t="s">
+      <c r="G81" s="25" t="s">
         <v>212</v>
-      </c>
-      <c r="G81" s="25" t="s">
-        <v>213</v>
       </c>
       <c r="H81" s="22"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B82" s="40">
         <v>7</v>
@@ -8552,22 +8547,22 @@
         <v>75</v>
       </c>
       <c r="D82" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="E82" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="E82" s="21" t="s">
+      <c r="F82" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="F82" s="25" t="s">
+      <c r="G82" s="25" t="s">
         <v>216</v>
-      </c>
-      <c r="G82" s="25" t="s">
-        <v>217</v>
       </c>
       <c r="H82" s="22"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B83" s="40">
         <v>7</v>
@@ -8577,19 +8572,19 @@
       </c>
       <c r="D83" s="24"/>
       <c r="E83" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="F83" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="F83" s="25" t="s">
+      <c r="G83" s="25" t="s">
         <v>219</v>
-      </c>
-      <c r="G83" s="25" t="s">
-        <v>220</v>
       </c>
       <c r="H83" s="22"/>
     </row>
     <row r="84" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A84" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B84" s="40">
         <v>7</v>
@@ -8598,22 +8593,22 @@
         <v>75</v>
       </c>
       <c r="D84" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="E84" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="E84" s="28" t="s">
+      <c r="F84" s="29" t="s">
         <v>222</v>
       </c>
-      <c r="F84" s="29" t="s">
+      <c r="G84" s="30" t="s">
         <v>223</v>
-      </c>
-      <c r="G84" s="30" t="s">
-        <v>224</v>
       </c>
       <c r="H84" s="10"/>
     </row>
     <row r="85" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A85" s="26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B85" s="40">
         <v>7</v>
@@ -8623,19 +8618,19 @@
       </c>
       <c r="D85" s="7"/>
       <c r="E85" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="F85" s="29" t="s">
         <v>225</v>
       </c>
-      <c r="F85" s="29" t="s">
+      <c r="G85" s="30" t="s">
         <v>226</v>
-      </c>
-      <c r="G85" s="30" t="s">
-        <v>227</v>
       </c>
       <c r="H85" s="10"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B86" s="40">
         <v>7</v>
@@ -8644,22 +8639,22 @@
         <v>75</v>
       </c>
       <c r="D86" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="E86" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="E86" s="21" t="s">
+      <c r="F86" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="F86" s="25" t="s">
+      <c r="G86" s="25" t="s">
         <v>230</v>
-      </c>
-      <c r="G86" s="25" t="s">
-        <v>231</v>
       </c>
       <c r="H86" s="22"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B87" s="40">
         <v>7</v>
@@ -8668,18 +8663,18 @@
         <v>75</v>
       </c>
       <c r="D87" s="21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E87" s="24"/>
       <c r="F87" s="23"/>
       <c r="G87" s="25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H87" s="22"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B88" s="40">
         <v>7</v>
@@ -8688,18 +8683,18 @@
         <v>75</v>
       </c>
       <c r="D88" s="21" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E88" s="24"/>
       <c r="F88" s="23"/>
       <c r="G88" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H88" s="22"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B89" s="40">
         <v>7</v>
@@ -8708,18 +8703,18 @@
         <v>75</v>
       </c>
       <c r="D89" s="21" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E89" s="24"/>
       <c r="F89" s="23"/>
       <c r="G89" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H89" s="22"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B90" s="40">
         <v>7</v>
@@ -8735,7 +8730,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B91" s="40">
         <v>7</v>
@@ -8744,18 +8739,18 @@
         <v>75</v>
       </c>
       <c r="D91" s="21" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E91" s="24"/>
       <c r="F91" s="20"/>
       <c r="G91" s="25" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H91" s="22"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B92" s="40">
         <v>7</v>
@@ -8764,18 +8759,18 @@
         <v>75</v>
       </c>
       <c r="D92" s="21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E92" s="20"/>
       <c r="F92" s="23"/>
       <c r="G92" s="25" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H92" s="22"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B93" s="40">
         <v>7</v>
@@ -8784,7 +8779,7 @@
         <v>75</v>
       </c>
       <c r="D93" s="21" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E93" s="24"/>
       <c r="F93" s="20"/>
@@ -8793,7 +8788,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B94" s="40">
         <v>7</v>
@@ -8802,7 +8797,7 @@
         <v>30</v>
       </c>
       <c r="D94" s="21" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E94" s="20"/>
       <c r="F94" s="20"/>
@@ -8811,7 +8806,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B95" s="40">
         <v>7</v>
@@ -8820,7 +8815,7 @@
         <v>30</v>
       </c>
       <c r="D95" s="21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E95" s="20"/>
       <c r="F95" s="20"/>
@@ -8829,7 +8824,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B96" s="40">
         <v>7</v>
@@ -8838,18 +8833,18 @@
         <v>30</v>
       </c>
       <c r="D96" s="21" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E96" s="24"/>
       <c r="F96" s="23"/>
       <c r="G96" s="25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H96" s="22"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B97" s="40">
         <v>7</v>
@@ -8865,7 +8860,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B98" s="40">
         <v>7</v>
@@ -8881,7 +8876,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B99" s="40">
         <v>7</v>
@@ -8890,7 +8885,7 @@
         <v>30</v>
       </c>
       <c r="D99" s="21" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E99" s="20"/>
       <c r="F99" s="20"/>
@@ -8899,7 +8894,7 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B100" s="40">
         <v>7</v>
@@ -8908,7 +8903,7 @@
         <v>30</v>
       </c>
       <c r="D100" s="21" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E100" s="20"/>
       <c r="F100" s="20"/>
@@ -8917,7 +8912,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B101" s="40">
         <v>7</v>
@@ -8926,7 +8921,7 @@
         <v>30</v>
       </c>
       <c r="D101" s="21" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E101" s="20"/>
       <c r="F101" s="20"/>
@@ -8935,7 +8930,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B102" s="40">
         <v>7</v>
@@ -8944,7 +8939,7 @@
         <v>30</v>
       </c>
       <c r="D102" s="21" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E102" s="20"/>
       <c r="F102" s="20"/>
@@ -8953,7 +8948,7 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B103" s="40">
         <v>7</v>
@@ -8962,20 +8957,20 @@
         <v>30</v>
       </c>
       <c r="D103" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E103" s="24"/>
       <c r="F103" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="G103" s="25" t="s">
         <v>251</v>
-      </c>
-      <c r="G103" s="25" t="s">
-        <v>252</v>
       </c>
       <c r="H103" s="22"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B104" s="40">
         <v>7</v>
@@ -8986,16 +8981,16 @@
       <c r="D104" s="24"/>
       <c r="E104" s="24"/>
       <c r="F104" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="G104" s="25" t="s">
         <v>253</v>
-      </c>
-      <c r="G104" s="25" t="s">
-        <v>254</v>
       </c>
       <c r="H104" s="22"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B105" s="40">
         <v>7</v>
@@ -9006,16 +9001,16 @@
       <c r="D105" s="24"/>
       <c r="E105" s="24"/>
       <c r="F105" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="G105" s="25" t="s">
         <v>255</v>
-      </c>
-      <c r="G105" s="25" t="s">
-        <v>256</v>
       </c>
       <c r="H105" s="22"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B106" s="40">
         <v>7</v>
@@ -9026,16 +9021,16 @@
       <c r="D106" s="24"/>
       <c r="E106" s="24"/>
       <c r="F106" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="G106" s="25" t="s">
         <v>257</v>
-      </c>
-      <c r="G106" s="25" t="s">
-        <v>258</v>
       </c>
       <c r="H106" s="22"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B107" s="40">
         <v>7</v>
@@ -9047,13 +9042,13 @@
       <c r="E107" s="24"/>
       <c r="F107" s="23"/>
       <c r="G107" s="25" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H107" s="22"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B108" s="40">
         <v>7</v>
@@ -9062,20 +9057,20 @@
         <v>15</v>
       </c>
       <c r="D108" s="21" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E108" s="24"/>
       <c r="F108" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="G108" s="25" t="s">
         <v>261</v>
-      </c>
-      <c r="G108" s="25" t="s">
-        <v>262</v>
       </c>
       <c r="H108" s="22"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B109" s="40">
         <v>7</v>
@@ -9084,20 +9079,20 @@
         <v>15</v>
       </c>
       <c r="D109" s="21" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E109" s="24"/>
       <c r="F109" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="G109" s="25" t="s">
         <v>264</v>
-      </c>
-      <c r="G109" s="25" t="s">
-        <v>265</v>
       </c>
       <c r="H109" s="22"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B110" s="40">
         <v>7</v>
@@ -9106,20 +9101,20 @@
         <v>15</v>
       </c>
       <c r="D110" s="21" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E110" s="24"/>
       <c r="F110" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="G110" s="25" t="s">
         <v>267</v>
-      </c>
-      <c r="G110" s="25" t="s">
-        <v>268</v>
       </c>
       <c r="H110" s="22"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B111" s="40">
         <v>7</v>
@@ -9128,20 +9123,20 @@
         <v>15</v>
       </c>
       <c r="D111" s="21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E111" s="24"/>
       <c r="F111" s="25" t="s">
+        <v>269</v>
+      </c>
+      <c r="G111" s="25" t="s">
         <v>270</v>
-      </c>
-      <c r="G111" s="25" t="s">
-        <v>271</v>
       </c>
       <c r="H111" s="22"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B112" s="40">
         <v>7</v>
@@ -9150,20 +9145,20 @@
         <v>15</v>
       </c>
       <c r="D112" s="21" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E112" s="24"/>
       <c r="F112" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="G112" s="25" t="s">
         <v>273</v>
-      </c>
-      <c r="G112" s="25" t="s">
-        <v>274</v>
       </c>
       <c r="H112" s="22"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="19" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B113" s="40">
         <v>7</v>
@@ -9172,18 +9167,18 @@
         <v>15</v>
       </c>
       <c r="D113" s="21" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E113" s="24"/>
       <c r="F113" s="23"/>
       <c r="G113" s="25" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H113" s="22"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B114" s="40">
         <v>8</v>
@@ -9193,7 +9188,7 @@
       </c>
       <c r="D114" s="20"/>
       <c r="E114" s="21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F114" s="20"/>
       <c r="G114" s="23"/>
@@ -9201,7 +9196,7 @@
     </row>
     <row r="115" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A115" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B115" s="40">
         <v>8</v>
@@ -9211,17 +9206,17 @@
       </c>
       <c r="D115" s="7"/>
       <c r="E115" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="F115" s="31" t="s">
         <v>278</v>
-      </c>
-      <c r="F115" s="31" t="s">
-        <v>279</v>
       </c>
       <c r="G115" s="32"/>
       <c r="H115" s="10"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B116" s="40">
         <v>8</v>
@@ -9231,7 +9226,7 @@
       </c>
       <c r="D116" s="20"/>
       <c r="E116" s="21" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F116" s="20"/>
       <c r="G116" s="23"/>
@@ -9239,7 +9234,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B117" s="40">
         <v>8</v>
@@ -9249,7 +9244,7 @@
       </c>
       <c r="D117" s="20"/>
       <c r="E117" s="21" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F117" s="20"/>
       <c r="G117" s="23"/>
@@ -9257,7 +9252,7 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B118" s="40">
         <v>8</v>
@@ -9267,17 +9262,17 @@
       </c>
       <c r="D118" s="20"/>
       <c r="E118" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="F118" s="21" t="s">
         <v>282</v>
-      </c>
-      <c r="F118" s="21" t="s">
-        <v>283</v>
       </c>
       <c r="G118" s="23"/>
       <c r="H118" s="22"/>
     </row>
     <row r="119" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A119" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B119" s="40">
         <v>8</v>
@@ -9286,22 +9281,22 @@
         <v>75</v>
       </c>
       <c r="D119" s="28" t="s">
+        <v>283</v>
+      </c>
+      <c r="E119" s="28" t="s">
         <v>284</v>
       </c>
-      <c r="E119" s="28" t="s">
+      <c r="F119" s="33" t="s">
         <v>285</v>
       </c>
-      <c r="F119" s="33" t="s">
+      <c r="G119" s="30" t="s">
         <v>286</v>
-      </c>
-      <c r="G119" s="30" t="s">
-        <v>287</v>
       </c>
       <c r="H119" s="10"/>
     </row>
     <row r="120" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A120" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B120" s="40">
         <v>8</v>
@@ -9311,17 +9306,17 @@
       </c>
       <c r="D120" s="12"/>
       <c r="E120" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="F120" s="31" t="s">
         <v>288</v>
-      </c>
-      <c r="F120" s="31" t="s">
-        <v>289</v>
       </c>
       <c r="G120" s="32"/>
       <c r="H120" s="10"/>
     </row>
     <row r="121" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A121" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B121" s="40">
         <v>8</v>
@@ -9330,20 +9325,20 @@
         <v>75</v>
       </c>
       <c r="D121" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="E121" s="28" t="s">
         <v>290</v>
       </c>
-      <c r="E121" s="28" t="s">
+      <c r="F121" s="33" t="s">
         <v>291</v>
-      </c>
-      <c r="F121" s="33" t="s">
-        <v>292</v>
       </c>
       <c r="G121" s="32"/>
       <c r="H121" s="10"/>
     </row>
     <row r="122" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A122" s="26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B122" s="40">
         <v>8</v>
@@ -9353,19 +9348,19 @@
       </c>
       <c r="D122" s="7"/>
       <c r="E122" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="F122" s="31" t="s">
         <v>293</v>
       </c>
-      <c r="F122" s="31" t="s">
+      <c r="G122" s="30" t="s">
         <v>294</v>
-      </c>
-      <c r="G122" s="30" t="s">
-        <v>295</v>
       </c>
       <c r="H122" s="10"/>
     </row>
     <row r="123" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A123" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B123" s="40">
         <v>8</v>
@@ -9375,19 +9370,19 @@
       </c>
       <c r="D123" s="12"/>
       <c r="E123" s="28" t="s">
+        <v>295</v>
+      </c>
+      <c r="F123" s="31" t="s">
         <v>296</v>
       </c>
-      <c r="F123" s="31" t="s">
+      <c r="G123" s="30" t="s">
         <v>297</v>
-      </c>
-      <c r="G123" s="30" t="s">
-        <v>298</v>
       </c>
       <c r="H123" s="10"/>
     </row>
     <row r="124" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A124" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B124" s="40">
         <v>8</v>
@@ -9396,22 +9391,22 @@
         <v>75</v>
       </c>
       <c r="D124" s="28" t="s">
+        <v>298</v>
+      </c>
+      <c r="E124" s="28" t="s">
         <v>299</v>
       </c>
-      <c r="E124" s="28" t="s">
+      <c r="F124" s="33" t="s">
         <v>300</v>
       </c>
-      <c r="F124" s="33" t="s">
+      <c r="G124" s="30" t="s">
         <v>301</v>
-      </c>
-      <c r="G124" s="30" t="s">
-        <v>302</v>
       </c>
       <c r="H124" s="10"/>
     </row>
     <row r="125" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A125" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B125" s="40">
         <v>8</v>
@@ -9420,20 +9415,20 @@
         <v>75</v>
       </c>
       <c r="D125" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="E125" s="31" t="s">
         <v>303</v>
-      </c>
-      <c r="E125" s="31" t="s">
-        <v>304</v>
       </c>
       <c r="F125" s="12"/>
       <c r="G125" s="30" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H125" s="10"/>
     </row>
     <row r="126" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A126" s="26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B126" s="40">
         <v>8</v>
@@ -9442,10 +9437,10 @@
         <v>75</v>
       </c>
       <c r="D126" s="28" t="s">
+        <v>305</v>
+      </c>
+      <c r="E126" s="33" t="s">
         <v>306</v>
-      </c>
-      <c r="E126" s="33" t="s">
-        <v>307</v>
       </c>
       <c r="F126" s="12"/>
       <c r="G126" s="32"/>
@@ -9453,7 +9448,7 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B127" s="40">
         <v>8</v>
@@ -9469,7 +9464,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B128" s="40">
         <v>8</v>
@@ -9478,10 +9473,10 @@
         <v>75</v>
       </c>
       <c r="D128" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="E128" s="21" t="s">
         <v>308</v>
-      </c>
-      <c r="E128" s="21" t="s">
-        <v>309</v>
       </c>
       <c r="F128" s="20"/>
       <c r="G128" s="23"/>
@@ -9489,7 +9484,7 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B129" s="40">
         <v>8</v>
@@ -9498,7 +9493,7 @@
         <v>75</v>
       </c>
       <c r="D129" s="21" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E129" s="20"/>
       <c r="F129" s="24"/>
@@ -9507,7 +9502,7 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B130" s="40">
         <v>8</v>
@@ -9516,7 +9511,7 @@
         <v>75</v>
       </c>
       <c r="D130" s="21" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E130" s="24"/>
       <c r="F130" s="20"/>
@@ -9525,7 +9520,7 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B131" s="40">
         <v>8</v>
@@ -9534,7 +9529,7 @@
         <v>30</v>
       </c>
       <c r="D131" s="21" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E131" s="20"/>
       <c r="F131" s="20"/>
@@ -9543,7 +9538,7 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B132" s="40">
         <v>8</v>
@@ -9552,7 +9547,7 @@
         <v>30</v>
       </c>
       <c r="D132" s="21" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E132" s="20"/>
       <c r="F132" s="20"/>
@@ -9561,7 +9556,7 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B133" s="40">
         <v>8</v>
@@ -9570,20 +9565,20 @@
         <v>30</v>
       </c>
       <c r="D133" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="E133" s="21" t="s">
         <v>314</v>
-      </c>
-      <c r="E133" s="21" t="s">
-        <v>315</v>
       </c>
       <c r="F133" s="24"/>
       <c r="G133" s="25" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H133" s="22"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B134" s="40">
         <v>8</v>
@@ -9592,7 +9587,7 @@
         <v>15</v>
       </c>
       <c r="D134" s="21" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E134" s="20"/>
       <c r="F134" s="20"/>
@@ -9601,7 +9596,7 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B135" s="40">
         <v>8</v>
@@ -9610,7 +9605,7 @@
         <v>15</v>
       </c>
       <c r="D135" s="21" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E135" s="20"/>
       <c r="F135" s="20"/>
@@ -9619,7 +9614,7 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B136" s="40">
         <v>8</v>
@@ -9628,7 +9623,7 @@
         <v>30</v>
       </c>
       <c r="D136" s="21" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E136" s="20"/>
       <c r="F136" s="20"/>
@@ -9637,7 +9632,7 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B137" s="40">
         <v>8</v>
@@ -9646,7 +9641,7 @@
         <v>30</v>
       </c>
       <c r="D137" s="21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E137" s="20"/>
       <c r="F137" s="20"/>
@@ -9655,7 +9650,7 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B138" s="40">
         <v>8</v>
@@ -9664,7 +9659,7 @@
         <v>30</v>
       </c>
       <c r="D138" s="21" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E138" s="20"/>
       <c r="F138" s="20"/>
@@ -9673,7 +9668,7 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B139" s="40">
         <v>8</v>
@@ -9682,7 +9677,7 @@
         <v>30</v>
       </c>
       <c r="D139" s="21" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E139" s="20"/>
       <c r="F139" s="20"/>
@@ -9691,7 +9686,7 @@
     </row>
     <row r="140" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A140" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B140" s="40">
         <v>8</v>
@@ -9700,22 +9695,22 @@
         <v>30</v>
       </c>
       <c r="D140" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="E140" s="28" t="s">
         <v>323</v>
       </c>
-      <c r="E140" s="28" t="s">
+      <c r="F140" s="31" t="s">
         <v>324</v>
       </c>
-      <c r="F140" s="31" t="s">
+      <c r="G140" s="30" t="s">
         <v>325</v>
-      </c>
-      <c r="G140" s="30" t="s">
-        <v>326</v>
       </c>
       <c r="H140" s="10"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B141" s="40">
         <v>8</v>
@@ -9724,20 +9719,20 @@
         <v>30</v>
       </c>
       <c r="D141" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="E141" s="21" t="s">
         <v>327</v>
-      </c>
-      <c r="E141" s="21" t="s">
-        <v>328</v>
       </c>
       <c r="F141" s="24"/>
       <c r="G141" s="25" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H141" s="22"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B142" s="40">
         <v>8</v>
@@ -9746,20 +9741,20 @@
         <v>30</v>
       </c>
       <c r="D142" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="E142" s="21" t="s">
         <v>330</v>
-      </c>
-      <c r="E142" s="21" t="s">
-        <v>331</v>
       </c>
       <c r="F142" s="24"/>
       <c r="G142" s="25" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H142" s="22"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B143" s="40">
         <v>8</v>
@@ -9768,10 +9763,10 @@
         <v>30</v>
       </c>
       <c r="D143" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="E143" s="21" t="s">
         <v>333</v>
-      </c>
-      <c r="E143" s="21" t="s">
-        <v>334</v>
       </c>
       <c r="F143" s="24"/>
       <c r="G143" s="23"/>
@@ -9779,7 +9774,7 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B144" s="40">
         <v>8</v>
@@ -9788,18 +9783,18 @@
         <v>30</v>
       </c>
       <c r="D144" s="21" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E144" s="24"/>
       <c r="F144" s="24"/>
       <c r="G144" s="25" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H144" s="22"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B145" s="40">
         <v>8</v>
@@ -9808,20 +9803,20 @@
         <v>15</v>
       </c>
       <c r="D145" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="E145" s="21" t="s">
         <v>337</v>
-      </c>
-      <c r="E145" s="21" t="s">
-        <v>338</v>
       </c>
       <c r="F145" s="24"/>
       <c r="G145" s="25" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H145" s="22"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B146" s="40">
         <v>8</v>
@@ -9830,20 +9825,20 @@
         <v>15</v>
       </c>
       <c r="D146" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="E146" s="21" t="s">
         <v>340</v>
-      </c>
-      <c r="E146" s="21" t="s">
-        <v>341</v>
       </c>
       <c r="F146" s="24"/>
       <c r="G146" s="25" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H146" s="22"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B147" s="40">
         <v>8</v>
@@ -9852,20 +9847,20 @@
         <v>15</v>
       </c>
       <c r="D147" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="E147" s="21" t="s">
         <v>343</v>
-      </c>
-      <c r="E147" s="21" t="s">
-        <v>344</v>
       </c>
       <c r="F147" s="24"/>
       <c r="G147" s="25" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H147" s="22"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B148" s="40">
         <v>8</v>
@@ -9874,10 +9869,10 @@
         <v>15</v>
       </c>
       <c r="D148" s="21" t="s">
+        <v>345</v>
+      </c>
+      <c r="E148" s="21" t="s">
         <v>346</v>
-      </c>
-      <c r="E148" s="21" t="s">
-        <v>347</v>
       </c>
       <c r="F148" s="24"/>
       <c r="G148" s="23"/>
@@ -9885,7 +9880,7 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B149" s="40">
         <v>8</v>
@@ -9894,10 +9889,10 @@
         <v>15</v>
       </c>
       <c r="D149" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="E149" s="21" t="s">
         <v>348</v>
-      </c>
-      <c r="E149" s="21" t="s">
-        <v>349</v>
       </c>
       <c r="F149" s="24"/>
       <c r="G149" s="23"/>
@@ -9905,7 +9900,7 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="19" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B150" s="40">
         <v>8</v>
@@ -9914,10 +9909,10 @@
         <v>15</v>
       </c>
       <c r="D150" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="E150" s="21" t="s">
         <v>350</v>
-      </c>
-      <c r="E150" s="21" t="s">
-        <v>351</v>
       </c>
       <c r="F150" s="24"/>
       <c r="G150" s="23"/>
@@ -9925,7 +9920,7 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="19" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B151" s="40">
         <v>8</v>
@@ -9934,10 +9929,10 @@
         <v>25</v>
       </c>
       <c r="D151" s="21" t="s">
+        <v>352</v>
+      </c>
+      <c r="E151" s="21" t="s">
         <v>353</v>
-      </c>
-      <c r="E151" s="21" t="s">
-        <v>354</v>
       </c>
       <c r="F151" s="24"/>
       <c r="G151" s="23"/>
@@ -9945,7 +9940,7 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" s="19" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B152" s="40">
         <v>8</v>
@@ -9954,7 +9949,7 @@
         <v>25</v>
       </c>
       <c r="D152" s="21" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E152" s="24"/>
       <c r="F152" s="24"/>
@@ -9963,7 +9958,7 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B153" s="40">
         <v>9</v>
@@ -9972,20 +9967,20 @@
         <v>250</v>
       </c>
       <c r="D153" s="21" t="s">
+        <v>356</v>
+      </c>
+      <c r="E153" s="21" t="s">
         <v>357</v>
       </c>
-      <c r="E153" s="21" t="s">
+      <c r="F153" s="21" t="s">
         <v>358</v>
-      </c>
-      <c r="F153" s="21" t="s">
-        <v>359</v>
       </c>
       <c r="G153" s="23"/>
       <c r="H153" s="22"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B154" s="40">
         <v>9</v>
@@ -9994,10 +9989,10 @@
         <v>150</v>
       </c>
       <c r="D154" s="21" t="s">
+        <v>359</v>
+      </c>
+      <c r="E154" s="21" t="s">
         <v>360</v>
-      </c>
-      <c r="E154" s="21" t="s">
-        <v>361</v>
       </c>
       <c r="F154" s="24"/>
       <c r="G154" s="23"/>
@@ -10005,7 +10000,7 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B155" s="40">
         <v>9</v>
@@ -10014,20 +10009,20 @@
         <v>150</v>
       </c>
       <c r="D155" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="E155" s="21" t="s">
         <v>362</v>
       </c>
-      <c r="E155" s="21" t="s">
+      <c r="F155" s="21" t="s">
         <v>363</v>
-      </c>
-      <c r="F155" s="21" t="s">
-        <v>364</v>
       </c>
       <c r="G155" s="23"/>
       <c r="H155" s="22"/>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B156" s="40">
         <v>9</v>
@@ -10036,10 +10031,10 @@
         <v>150</v>
       </c>
       <c r="D156" s="21" t="s">
+        <v>364</v>
+      </c>
+      <c r="E156" s="21" t="s">
         <v>365</v>
-      </c>
-      <c r="E156" s="21" t="s">
-        <v>366</v>
       </c>
       <c r="F156" s="24"/>
       <c r="G156" s="23"/>
@@ -10047,7 +10042,7 @@
     </row>
     <row r="157" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A157" s="26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B157" s="40">
         <v>9</v>
@@ -10056,20 +10051,20 @@
         <v>250</v>
       </c>
       <c r="D157" s="28" t="s">
+        <v>366</v>
+      </c>
+      <c r="E157" s="34" t="s">
         <v>367</v>
       </c>
-      <c r="E157" s="34" t="s">
+      <c r="F157" s="28" t="s">
         <v>368</v>
-      </c>
-      <c r="F157" s="28" t="s">
-        <v>369</v>
       </c>
       <c r="G157" s="32"/>
       <c r="H157" s="10"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B158" s="40">
         <v>9</v>
@@ -10079,17 +10074,17 @@
       </c>
       <c r="D158" s="24"/>
       <c r="E158" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F158" s="24"/>
       <c r="G158" s="25" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H158" s="22"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B159" s="40">
         <v>9</v>
@@ -10099,17 +10094,17 @@
       </c>
       <c r="D159" s="24"/>
       <c r="E159" s="21" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F159" s="24"/>
       <c r="G159" s="25" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H159" s="22"/>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B160" s="40">
         <v>9</v>
@@ -10118,18 +10113,18 @@
         <v>75</v>
       </c>
       <c r="D160" s="21" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E160" s="24"/>
       <c r="F160" s="24"/>
       <c r="G160" s="25" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H160" s="22"/>
     </row>
     <row r="161" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A161" s="26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B161" s="40">
         <v>9</v>
@@ -10139,17 +10134,17 @@
       </c>
       <c r="D161" s="12"/>
       <c r="E161" s="34" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F161" s="12"/>
       <c r="G161" s="30" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H161" s="10"/>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B162" s="40">
         <v>9</v>
@@ -10158,18 +10153,18 @@
         <v>75</v>
       </c>
       <c r="D162" s="21" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E162" s="24"/>
       <c r="F162" s="24"/>
       <c r="G162" s="25" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H162" s="22"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B163" s="40">
         <v>9</v>
@@ -10178,18 +10173,18 @@
         <v>75</v>
       </c>
       <c r="D163" s="21" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E163" s="24"/>
       <c r="F163" s="24"/>
       <c r="G163" s="25" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H163" s="22"/>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B164" s="40">
         <v>9</v>
@@ -10198,18 +10193,18 @@
         <v>75</v>
       </c>
       <c r="D164" s="21" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E164" s="24"/>
       <c r="F164" s="24"/>
       <c r="G164" s="25" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H164" s="22"/>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B165" s="40">
         <v>9</v>
@@ -10218,18 +10213,18 @@
         <v>75</v>
       </c>
       <c r="D165" s="21" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E165" s="24"/>
       <c r="F165" s="24"/>
       <c r="G165" s="25" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H165" s="22"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B166" s="40">
         <v>9</v>
@@ -10245,7 +10240,7 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B167" s="40">
         <v>9</v>
@@ -10254,18 +10249,18 @@
         <v>75</v>
       </c>
       <c r="D167" s="21" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E167" s="24"/>
       <c r="F167" s="24"/>
       <c r="G167" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H167" s="22"/>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B168" s="40">
         <v>9</v>
@@ -10274,7 +10269,7 @@
         <v>75</v>
       </c>
       <c r="D168" s="21" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E168" s="24"/>
       <c r="F168" s="24"/>
@@ -10283,7 +10278,7 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B169" s="40">
         <v>9</v>
@@ -10292,7 +10287,7 @@
         <v>75</v>
       </c>
       <c r="D169" s="21" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E169" s="24"/>
       <c r="F169" s="24"/>
@@ -10301,7 +10296,7 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B170" s="40">
         <v>9</v>
@@ -10310,20 +10305,20 @@
         <v>30</v>
       </c>
       <c r="D170" s="21" t="s">
+        <v>388</v>
+      </c>
+      <c r="E170" s="21" t="s">
         <v>389</v>
-      </c>
-      <c r="E170" s="21" t="s">
-        <v>390</v>
       </c>
       <c r="F170" s="24"/>
       <c r="G170" s="25" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H170" s="22"/>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B171" s="40">
         <v>9</v>
@@ -10332,7 +10327,7 @@
         <v>30</v>
       </c>
       <c r="D171" s="21" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E171" s="24"/>
       <c r="F171" s="24"/>
@@ -10341,7 +10336,7 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B172" s="40">
         <v>9</v>
@@ -10350,18 +10345,18 @@
         <v>30</v>
       </c>
       <c r="D172" s="21" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E172" s="24"/>
       <c r="F172" s="24"/>
       <c r="G172" s="25" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H172" s="22"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B173" s="40">
         <v>9</v>
@@ -10377,7 +10372,7 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B174" s="40">
         <v>9</v>
@@ -10393,7 +10388,7 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B175" s="40">
         <v>9</v>
@@ -10402,7 +10397,7 @@
         <v>30</v>
       </c>
       <c r="D175" s="21" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E175" s="24"/>
       <c r="F175" s="24"/>
@@ -10411,7 +10406,7 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B176" s="40">
         <v>9</v>
@@ -10420,7 +10415,7 @@
         <v>30</v>
       </c>
       <c r="D176" s="21" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E176" s="24"/>
       <c r="F176" s="24"/>
@@ -10429,7 +10424,7 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B177" s="40">
         <v>9</v>
@@ -10438,7 +10433,7 @@
         <v>30</v>
       </c>
       <c r="D177" s="21" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E177" s="24"/>
       <c r="F177" s="24"/>
@@ -10447,7 +10442,7 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B178" s="40">
         <v>9</v>
@@ -10456,7 +10451,7 @@
         <v>30</v>
       </c>
       <c r="D178" s="21" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E178" s="24"/>
       <c r="F178" s="24"/>
@@ -10465,7 +10460,7 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B179" s="40">
         <v>9</v>
@@ -10474,20 +10469,20 @@
         <v>30</v>
       </c>
       <c r="D179" s="21" t="s">
+        <v>398</v>
+      </c>
+      <c r="E179" s="21" t="s">
         <v>399</v>
-      </c>
-      <c r="E179" s="21" t="s">
-        <v>400</v>
       </c>
       <c r="F179" s="24"/>
       <c r="G179" s="25" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H179" s="22"/>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B180" s="40">
         <v>9</v>
@@ -10496,20 +10491,20 @@
         <v>30</v>
       </c>
       <c r="D180" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="E180" s="21" t="s">
         <v>402</v>
-      </c>
-      <c r="E180" s="21" t="s">
-        <v>403</v>
       </c>
       <c r="F180" s="24"/>
       <c r="G180" s="25" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H180" s="22"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B181" s="40">
         <v>9</v>
@@ -10518,18 +10513,18 @@
         <v>30</v>
       </c>
       <c r="D181" s="21" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E181" s="24"/>
       <c r="F181" s="24"/>
       <c r="G181" s="25" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H181" s="22"/>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B182" s="40">
         <v>9</v>
@@ -10538,7 +10533,7 @@
         <v>30</v>
       </c>
       <c r="D182" s="21" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E182" s="24"/>
       <c r="F182" s="24"/>
@@ -10547,7 +10542,7 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B183" s="40">
         <v>9</v>
@@ -10556,7 +10551,7 @@
         <v>30</v>
       </c>
       <c r="D183" s="21" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E183" s="24"/>
       <c r="F183" s="24"/>
@@ -10565,7 +10560,7 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B184" s="40">
         <v>9</v>
@@ -10574,18 +10569,18 @@
         <v>15</v>
       </c>
       <c r="D184" s="21" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E184" s="24"/>
       <c r="F184" s="24"/>
       <c r="G184" s="25" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H184" s="22"/>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B185" s="40">
         <v>9</v>
@@ -10594,7 +10589,7 @@
         <v>15</v>
       </c>
       <c r="D185" s="21" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E185" s="24"/>
       <c r="F185" s="24"/>
@@ -10603,7 +10598,7 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B186" s="40">
         <v>9</v>
@@ -10612,7 +10607,7 @@
         <v>15</v>
       </c>
       <c r="D186" s="21" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E186" s="24"/>
       <c r="F186" s="24"/>
@@ -10621,7 +10616,7 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B187" s="40">
         <v>9</v>
@@ -10630,7 +10625,7 @@
         <v>15</v>
       </c>
       <c r="D187" s="21" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E187" s="24"/>
       <c r="F187" s="24"/>
@@ -10639,7 +10634,7 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" s="19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B188" s="40">
         <v>9</v>
@@ -10648,7 +10643,7 @@
         <v>15</v>
       </c>
       <c r="D188" s="21" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E188" s="24"/>
       <c r="F188" s="24"/>
@@ -10657,7 +10652,7 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" s="19" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B189" s="40">
         <v>9</v>
@@ -10666,7 +10661,7 @@
         <v>15</v>
       </c>
       <c r="D189" s="21" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E189" s="24"/>
       <c r="F189" s="24"/>
@@ -10675,7 +10670,7 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" s="19" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B190" s="40">
         <v>9</v>
@@ -10684,7 +10679,7 @@
         <v>25</v>
       </c>
       <c r="D190" s="21" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E190" s="24"/>
       <c r="F190" s="24"/>
@@ -10693,7 +10688,7 @@
     </row>
     <row r="191" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A191" s="26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B191" s="41">
         <v>10</v>
@@ -10702,22 +10697,22 @@
         <v>250</v>
       </c>
       <c r="D191" s="31" t="s">
+        <v>416</v>
+      </c>
+      <c r="E191" s="35" t="s">
         <v>417</v>
       </c>
-      <c r="E191" s="35" t="s">
+      <c r="F191" s="30" t="s">
         <v>418</v>
       </c>
-      <c r="F191" s="30" t="s">
+      <c r="G191" s="36" t="s">
         <v>419</v>
-      </c>
-      <c r="G191" s="36" t="s">
-        <v>420</v>
       </c>
       <c r="H191" s="10"/>
     </row>
     <row r="192" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A192" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B192" s="41">
         <v>10</v>
@@ -10726,20 +10721,20 @@
         <v>150</v>
       </c>
       <c r="D192" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="E192" s="37" t="s">
         <v>421</v>
       </c>
-      <c r="E192" s="37" t="s">
+      <c r="F192" s="30" t="s">
         <v>422</v>
-      </c>
-      <c r="F192" s="30" t="s">
-        <v>423</v>
       </c>
       <c r="G192" s="10"/>
       <c r="H192" s="10"/>
     </row>
     <row r="193" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A193" s="26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B193" s="41">
         <v>10</v>
@@ -10748,10 +10743,10 @@
         <v>150</v>
       </c>
       <c r="D193" s="31" t="s">
+        <v>423</v>
+      </c>
+      <c r="E193" s="34" t="s">
         <v>424</v>
-      </c>
-      <c r="E193" s="34" t="s">
-        <v>425</v>
       </c>
       <c r="F193" s="32"/>
       <c r="G193" s="10"/>
@@ -10759,7 +10754,7 @@
     </row>
     <row r="194" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A194" s="26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B194" s="41">
         <v>10</v>
@@ -10768,10 +10763,10 @@
         <v>150</v>
       </c>
       <c r="D194" s="28" t="s">
+        <v>425</v>
+      </c>
+      <c r="E194" s="37" t="s">
         <v>426</v>
-      </c>
-      <c r="E194" s="37" t="s">
-        <v>427</v>
       </c>
       <c r="F194" s="32"/>
       <c r="G194" s="10"/>
@@ -10779,7 +10774,7 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B195" s="41">
         <v>10</v>
@@ -10788,10 +10783,10 @@
         <v>250</v>
       </c>
       <c r="D195" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="E195" s="21" t="s">
         <v>428</v>
-      </c>
-      <c r="E195" s="21" t="s">
-        <v>429</v>
       </c>
       <c r="F195" s="23"/>
       <c r="G195" s="22"/>
@@ -10799,7 +10794,7 @@
     </row>
     <row r="196" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A196" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B196" s="41">
         <v>10</v>
@@ -10808,10 +10803,10 @@
         <v>75</v>
       </c>
       <c r="D196" s="28" t="s">
+        <v>429</v>
+      </c>
+      <c r="E196" s="34" t="s">
         <v>430</v>
-      </c>
-      <c r="E196" s="34" t="s">
-        <v>431</v>
       </c>
       <c r="F196" s="32"/>
       <c r="G196" s="10"/>
@@ -10819,7 +10814,7 @@
     </row>
     <row r="197" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A197" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B197" s="41">
         <v>10</v>
@@ -10828,20 +10823,20 @@
         <v>75</v>
       </c>
       <c r="D197" s="28" t="s">
+        <v>431</v>
+      </c>
+      <c r="E197" s="37" t="s">
         <v>432</v>
       </c>
-      <c r="E197" s="37" t="s">
+      <c r="F197" s="30" t="s">
         <v>433</v>
-      </c>
-      <c r="F197" s="30" t="s">
-        <v>434</v>
       </c>
       <c r="G197" s="10"/>
       <c r="H197" s="10"/>
     </row>
     <row r="198" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A198" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B198" s="41">
         <v>10</v>
@@ -10850,20 +10845,20 @@
         <v>75</v>
       </c>
       <c r="D198" s="28" t="s">
+        <v>434</v>
+      </c>
+      <c r="E198" s="34" t="s">
         <v>435</v>
       </c>
-      <c r="E198" s="34" t="s">
+      <c r="F198" s="30" t="s">
         <v>436</v>
-      </c>
-      <c r="F198" s="30" t="s">
-        <v>437</v>
       </c>
       <c r="G198" s="10"/>
       <c r="H198" s="10"/>
     </row>
     <row r="199" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A199" s="26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B199" s="41">
         <v>10</v>
@@ -10873,7 +10868,7 @@
       </c>
       <c r="D199" s="12"/>
       <c r="E199" s="37" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F199" s="32"/>
       <c r="G199" s="10"/>
@@ -10881,7 +10876,7 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B200" s="41">
         <v>10</v>
@@ -10890,18 +10885,18 @@
         <v>75</v>
       </c>
       <c r="D200" s="21" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E200" s="24"/>
       <c r="F200" s="25" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G200" s="22"/>
       <c r="H200" s="22"/>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B201" s="41">
         <v>10</v>
@@ -10910,7 +10905,7 @@
         <v>75</v>
       </c>
       <c r="D201" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E201" s="24"/>
       <c r="F201" s="23"/>
@@ -10919,7 +10914,7 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B202" s="41">
         <v>10</v>
@@ -10935,7 +10930,7 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B203" s="41">
         <v>10</v>
@@ -10944,7 +10939,7 @@
         <v>75</v>
       </c>
       <c r="D203" s="21" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E203" s="24"/>
       <c r="F203" s="23"/>
@@ -10953,7 +10948,7 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B204" s="41">
         <v>10</v>
@@ -10969,7 +10964,7 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B205" s="41">
         <v>10</v>
@@ -10978,7 +10973,7 @@
         <v>75</v>
       </c>
       <c r="D205" s="21" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E205" s="24"/>
       <c r="F205" s="23"/>
@@ -10987,7 +10982,7 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B206" s="41">
         <v>10</v>
@@ -10996,7 +10991,7 @@
         <v>75</v>
       </c>
       <c r="D206" s="21" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E206" s="24"/>
       <c r="F206" s="23"/>
@@ -11005,7 +11000,7 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B207" s="41">
         <v>10</v>
@@ -11014,7 +11009,7 @@
         <v>75</v>
       </c>
       <c r="D207" s="21" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E207" s="24"/>
       <c r="F207" s="23"/>
@@ -11023,7 +11018,7 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B208" s="41">
         <v>10</v>
@@ -11032,7 +11027,7 @@
         <v>30</v>
       </c>
       <c r="D208" s="21" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E208" s="24"/>
       <c r="F208" s="23"/>
@@ -11041,7 +11036,7 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B209" s="41">
         <v>10</v>
@@ -11050,18 +11045,18 @@
         <v>30</v>
       </c>
       <c r="D209" s="21" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E209" s="24"/>
       <c r="F209" s="25" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G209" s="22"/>
       <c r="H209" s="22"/>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B210" s="41">
         <v>10</v>
@@ -11070,18 +11065,18 @@
         <v>30</v>
       </c>
       <c r="D210" s="21" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E210" s="24"/>
       <c r="F210" s="25" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G210" s="22"/>
       <c r="H210" s="22"/>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B211" s="41">
         <v>10</v>
@@ -11092,14 +11087,14 @@
       <c r="D211" s="24"/>
       <c r="E211" s="24"/>
       <c r="F211" s="25" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G211" s="22"/>
       <c r="H211" s="22"/>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B212" s="41">
         <v>10</v>
@@ -11110,14 +11105,14 @@
       <c r="D212" s="24"/>
       <c r="E212" s="24"/>
       <c r="F212" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G212" s="22"/>
       <c r="H212" s="22"/>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B213" s="41">
         <v>10</v>
@@ -11126,7 +11121,7 @@
         <v>30</v>
       </c>
       <c r="D213" s="21" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E213" s="24"/>
       <c r="F213" s="23"/>
@@ -11135,7 +11130,7 @@
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B214" s="41">
         <v>10</v>
@@ -11144,7 +11139,7 @@
         <v>30</v>
       </c>
       <c r="D214" s="21" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E214" s="24"/>
       <c r="F214" s="23"/>
@@ -11153,7 +11148,7 @@
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B215" s="41">
         <v>10</v>
@@ -11162,7 +11157,7 @@
         <v>30</v>
       </c>
       <c r="D215" s="21" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E215" s="24"/>
       <c r="F215" s="23"/>
@@ -11171,7 +11166,7 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B216" s="41">
         <v>10</v>
@@ -11187,7 +11182,7 @@
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B217" s="41">
         <v>10</v>
@@ -11198,14 +11193,14 @@
       <c r="D217" s="24"/>
       <c r="E217" s="24"/>
       <c r="F217" s="25" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G217" s="22"/>
       <c r="H217" s="22"/>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B218" s="41">
         <v>10</v>
@@ -11216,14 +11211,14 @@
       <c r="D218" s="24"/>
       <c r="E218" s="24"/>
       <c r="F218" s="25" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G218" s="22"/>
       <c r="H218" s="22"/>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B219" s="41">
         <v>10</v>
@@ -11239,7 +11234,7 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B220" s="41">
         <v>10</v>
@@ -11255,7 +11250,7 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B221" s="41">
         <v>10</v>
@@ -11266,14 +11261,14 @@
       <c r="D221" s="24"/>
       <c r="E221" s="24"/>
       <c r="F221" s="25" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G221" s="22"/>
       <c r="H221" s="22"/>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B222" s="41">
         <v>10</v>
@@ -11282,18 +11277,18 @@
         <v>15</v>
       </c>
       <c r="D222" s="21" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E222" s="24"/>
       <c r="F222" s="25" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G222" s="22"/>
       <c r="H222" s="22"/>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B223" s="41">
         <v>10</v>
@@ -11302,18 +11297,18 @@
         <v>15</v>
       </c>
       <c r="D223" s="21" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E223" s="24"/>
       <c r="F223" s="25" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G223" s="22"/>
       <c r="H223" s="22"/>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B224" s="41">
         <v>10</v>
@@ -11324,14 +11319,14 @@
       <c r="D224" s="24"/>
       <c r="E224" s="24"/>
       <c r="F224" s="25" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G224" s="22"/>
       <c r="H224" s="22"/>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B225" s="41">
         <v>10</v>
@@ -11342,14 +11337,14 @@
       <c r="D225" s="24"/>
       <c r="E225" s="24"/>
       <c r="F225" s="25" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G225" s="22"/>
       <c r="H225" s="22"/>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226" s="19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B226" s="41">
         <v>10</v>
@@ -11360,14 +11355,14 @@
       <c r="D226" s="24"/>
       <c r="E226" s="24"/>
       <c r="F226" s="25" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G226" s="22"/>
       <c r="H226" s="22"/>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" s="19" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B227" s="41">
         <v>10</v>
@@ -11378,14 +11373,14 @@
       <c r="D227" s="24"/>
       <c r="E227" s="24"/>
       <c r="F227" s="25" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G227" s="22"/>
       <c r="H227" s="22"/>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B228" s="40">
         <v>11</v>
@@ -11395,7 +11390,7 @@
       </c>
       <c r="D228" s="20"/>
       <c r="E228" s="21" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F228" s="20"/>
       <c r="G228" s="23"/>
@@ -11403,7 +11398,7 @@
     </row>
     <row r="229" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A229" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B229" s="40">
         <v>11</v>
@@ -11413,19 +11408,19 @@
       </c>
       <c r="D229" s="7"/>
       <c r="E229" s="34" t="s">
+        <v>467</v>
+      </c>
+      <c r="F229" s="31" t="s">
         <v>468</v>
       </c>
-      <c r="F229" s="31" t="s">
+      <c r="G229" s="30" t="s">
         <v>469</v>
-      </c>
-      <c r="G229" s="30" t="s">
-        <v>470</v>
       </c>
       <c r="H229" s="10"/>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B230" s="40">
         <v>11</v>
@@ -11435,7 +11430,7 @@
       </c>
       <c r="D230" s="20"/>
       <c r="E230" s="21" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F230" s="20"/>
       <c r="G230" s="23"/>
@@ -11443,7 +11438,7 @@
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B231" s="40">
         <v>11</v>
@@ -11453,7 +11448,7 @@
       </c>
       <c r="D231" s="20"/>
       <c r="E231" s="21" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F231" s="20"/>
       <c r="G231" s="23"/>
@@ -11461,7 +11456,7 @@
     </row>
     <row r="232" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A232" s="26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B232" s="40">
         <v>11</v>
@@ -11471,17 +11466,17 @@
       </c>
       <c r="D232" s="7"/>
       <c r="E232" s="34" t="s">
+        <v>472</v>
+      </c>
+      <c r="F232" s="28" t="s">
         <v>473</v>
-      </c>
-      <c r="F232" s="28" t="s">
-        <v>474</v>
       </c>
       <c r="G232" s="32"/>
       <c r="H232" s="10"/>
     </row>
     <row r="233" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A233" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B233" s="40">
         <v>11</v>
@@ -11490,22 +11485,22 @@
         <v>75</v>
       </c>
       <c r="D233" s="28" t="s">
+        <v>474</v>
+      </c>
+      <c r="E233" s="34" t="s">
         <v>475</v>
       </c>
-      <c r="E233" s="34" t="s">
+      <c r="F233" s="31" t="s">
         <v>476</v>
       </c>
-      <c r="F233" s="31" t="s">
+      <c r="G233" s="30" t="s">
         <v>477</v>
-      </c>
-      <c r="G233" s="30" t="s">
-        <v>478</v>
       </c>
       <c r="H233" s="10"/>
     </row>
     <row r="234" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A234" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B234" s="40">
         <v>11</v>
@@ -11514,22 +11509,22 @@
         <v>75</v>
       </c>
       <c r="D234" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="E234" s="28" t="s">
         <v>479</v>
       </c>
-      <c r="E234" s="28" t="s">
+      <c r="F234" s="33" t="s">
         <v>480</v>
       </c>
-      <c r="F234" s="33" t="s">
+      <c r="G234" s="30" t="s">
         <v>481</v>
-      </c>
-      <c r="G234" s="30" t="s">
-        <v>482</v>
       </c>
       <c r="H234" s="10"/>
     </row>
     <row r="235" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A235" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B235" s="40">
         <v>11</v>
@@ -11538,22 +11533,22 @@
         <v>75</v>
       </c>
       <c r="D235" s="28" t="s">
+        <v>482</v>
+      </c>
+      <c r="E235" s="28" t="s">
         <v>483</v>
       </c>
-      <c r="E235" s="28" t="s">
+      <c r="F235" s="31" t="s">
         <v>484</v>
       </c>
-      <c r="F235" s="31" t="s">
+      <c r="G235" s="30" t="s">
         <v>485</v>
-      </c>
-      <c r="G235" s="30" t="s">
-        <v>486</v>
       </c>
       <c r="H235" s="10"/>
     </row>
     <row r="236" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A236" s="26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B236" s="40">
         <v>11</v>
@@ -11563,19 +11558,19 @@
       </c>
       <c r="D236" s="7"/>
       <c r="E236" s="37" t="s">
+        <v>486</v>
+      </c>
+      <c r="F236" s="28" t="s">
         <v>487</v>
       </c>
-      <c r="F236" s="28" t="s">
+      <c r="G236" s="30" t="s">
         <v>488</v>
-      </c>
-      <c r="G236" s="30" t="s">
-        <v>489</v>
       </c>
       <c r="H236" s="10"/>
     </row>
     <row r="237" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A237" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B237" s="40">
         <v>11</v>
@@ -11584,22 +11579,22 @@
         <v>75</v>
       </c>
       <c r="D237" s="28" t="s">
+        <v>489</v>
+      </c>
+      <c r="E237" s="28" t="s">
         <v>490</v>
       </c>
-      <c r="E237" s="28" t="s">
+      <c r="F237" s="31" t="s">
         <v>491</v>
       </c>
-      <c r="F237" s="31" t="s">
+      <c r="G237" s="30" t="s">
         <v>492</v>
-      </c>
-      <c r="G237" s="30" t="s">
-        <v>493</v>
       </c>
       <c r="H237" s="10"/>
     </row>
     <row r="238" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A238" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B238" s="40">
         <v>11</v>
@@ -11608,22 +11603,22 @@
         <v>75</v>
       </c>
       <c r="D238" s="28" t="s">
+        <v>493</v>
+      </c>
+      <c r="E238" s="28" t="s">
         <v>494</v>
       </c>
-      <c r="E238" s="28" t="s">
+      <c r="F238" s="31" t="s">
         <v>495</v>
       </c>
-      <c r="F238" s="31" t="s">
+      <c r="G238" s="30" t="s">
         <v>496</v>
-      </c>
-      <c r="G238" s="30" t="s">
-        <v>497</v>
       </c>
       <c r="H238" s="10"/>
     </row>
     <row r="239" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A239" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B239" s="40">
         <v>11</v>
@@ -11632,22 +11627,22 @@
         <v>75</v>
       </c>
       <c r="D239" s="28" t="s">
+        <v>497</v>
+      </c>
+      <c r="E239" s="37" t="s">
         <v>498</v>
       </c>
-      <c r="E239" s="37" t="s">
+      <c r="F239" s="33" t="s">
         <v>499</v>
       </c>
-      <c r="F239" s="33" t="s">
+      <c r="G239" s="30" t="s">
         <v>500</v>
-      </c>
-      <c r="G239" s="30" t="s">
-        <v>501</v>
       </c>
       <c r="H239" s="10"/>
     </row>
     <row r="240" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A240" s="26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B240" s="40">
         <v>11</v>
@@ -11656,22 +11651,22 @@
         <v>75</v>
       </c>
       <c r="D240" s="28" t="s">
+        <v>501</v>
+      </c>
+      <c r="E240" s="34" t="s">
         <v>502</v>
       </c>
-      <c r="E240" s="34" t="s">
+      <c r="F240" s="31" t="s">
         <v>503</v>
       </c>
-      <c r="F240" s="31" t="s">
+      <c r="G240" s="30" t="s">
         <v>504</v>
-      </c>
-      <c r="G240" s="30" t="s">
-        <v>505</v>
       </c>
       <c r="H240" s="10"/>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B241" s="40">
         <v>11</v>
@@ -11687,7 +11682,7 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B242" s="40">
         <v>11</v>
@@ -11696,20 +11691,20 @@
         <v>75</v>
       </c>
       <c r="D242" s="21" t="s">
+        <v>505</v>
+      </c>
+      <c r="E242" s="21" t="s">
         <v>506</v>
-      </c>
-      <c r="E242" s="21" t="s">
-        <v>507</v>
       </c>
       <c r="F242" s="20"/>
       <c r="G242" s="25" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H242" s="22"/>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B243" s="40">
         <v>11</v>
@@ -11718,18 +11713,18 @@
         <v>75</v>
       </c>
       <c r="D243" s="21" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E243" s="20"/>
       <c r="F243" s="24"/>
       <c r="G243" s="25" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H243" s="22"/>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B244" s="40">
         <v>11</v>
@@ -11738,7 +11733,7 @@
         <v>75</v>
       </c>
       <c r="D244" s="21" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E244" s="24"/>
       <c r="F244" s="20"/>
@@ -11747,7 +11742,7 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B245" s="40">
         <v>11</v>
@@ -11756,7 +11751,7 @@
         <v>30</v>
       </c>
       <c r="D245" s="21" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E245" s="20"/>
       <c r="F245" s="20"/>
@@ -11765,7 +11760,7 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B246" s="40">
         <v>11</v>
@@ -11774,7 +11769,7 @@
         <v>30</v>
       </c>
       <c r="D246" s="21" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E246" s="20"/>
       <c r="F246" s="20"/>
@@ -11783,7 +11778,7 @@
     </row>
     <row r="247" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A247" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B247" s="40">
         <v>11</v>
@@ -11795,13 +11790,13 @@
       <c r="E247" s="24"/>
       <c r="F247" s="24"/>
       <c r="G247" s="25" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H247" s="22"/>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B248" s="40">
         <v>11</v>
@@ -11810,7 +11805,7 @@
         <v>30</v>
       </c>
       <c r="D248" s="21" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E248" s="20"/>
       <c r="F248" s="20"/>
@@ -11819,7 +11814,7 @@
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B249" s="40">
         <v>11</v>
@@ -11828,7 +11823,7 @@
         <v>30</v>
       </c>
       <c r="D249" s="21" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E249" s="20"/>
       <c r="F249" s="20"/>
@@ -11837,7 +11832,7 @@
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B250" s="40">
         <v>11</v>
@@ -11846,7 +11841,7 @@
         <v>30</v>
       </c>
       <c r="D250" s="21" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E250" s="20"/>
       <c r="F250" s="20"/>
@@ -11855,7 +11850,7 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B251" s="40">
         <v>11</v>
@@ -11864,7 +11859,7 @@
         <v>30</v>
       </c>
       <c r="D251" s="21" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E251" s="20"/>
       <c r="F251" s="20"/>
@@ -11873,7 +11868,7 @@
     </row>
     <row r="252" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A252" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B252" s="40">
         <v>11</v>
@@ -11882,20 +11877,20 @@
         <v>30</v>
       </c>
       <c r="D252" s="21" t="s">
+        <v>518</v>
+      </c>
+      <c r="E252" s="21" t="s">
         <v>519</v>
-      </c>
-      <c r="E252" s="21" t="s">
-        <v>520</v>
       </c>
       <c r="F252" s="24"/>
       <c r="G252" s="25" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H252" s="22"/>
     </row>
     <row r="253" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A253" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B253" s="40">
         <v>11</v>
@@ -11904,20 +11899,20 @@
         <v>30</v>
       </c>
       <c r="D253" s="21" t="s">
+        <v>521</v>
+      </c>
+      <c r="E253" s="21" t="s">
         <v>522</v>
-      </c>
-      <c r="E253" s="21" t="s">
-        <v>523</v>
       </c>
       <c r="F253" s="24"/>
       <c r="G253" s="25" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H253" s="22"/>
     </row>
     <row r="254" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A254" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B254" s="40">
         <v>11</v>
@@ -11926,18 +11921,18 @@
         <v>30</v>
       </c>
       <c r="D254" s="21" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E254" s="24"/>
       <c r="F254" s="24"/>
       <c r="G254" s="25" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H254" s="22"/>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B255" s="40">
         <v>11</v>
@@ -11946,18 +11941,18 @@
         <v>30</v>
       </c>
       <c r="D255" s="21" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E255" s="24"/>
       <c r="F255" s="24"/>
       <c r="G255" s="25" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H255" s="22"/>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B256" s="40">
         <v>11</v>
@@ -11966,18 +11961,18 @@
         <v>30</v>
       </c>
       <c r="D256" s="21" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E256" s="24"/>
       <c r="F256" s="24"/>
       <c r="G256" s="25" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H256" s="22"/>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B257" s="40">
         <v>11</v>
@@ -11986,18 +11981,18 @@
         <v>15</v>
       </c>
       <c r="D257" s="21" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E257" s="24"/>
       <c r="F257" s="24"/>
       <c r="G257" s="25" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H257" s="22"/>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B258" s="40">
         <v>11</v>
@@ -12006,18 +12001,18 @@
         <v>15</v>
       </c>
       <c r="D258" s="21" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E258" s="24"/>
       <c r="F258" s="24"/>
       <c r="G258" s="25" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H258" s="22"/>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B259" s="40">
         <v>11</v>
@@ -12026,18 +12021,18 @@
         <v>15</v>
       </c>
       <c r="D259" s="21" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E259" s="24"/>
       <c r="F259" s="24"/>
       <c r="G259" s="25" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H259" s="22"/>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B260" s="40">
         <v>11</v>
@@ -12046,18 +12041,18 @@
         <v>15</v>
       </c>
       <c r="D260" s="21" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E260" s="24"/>
       <c r="F260" s="24"/>
       <c r="G260" s="25" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H260" s="22"/>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261" s="19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B261" s="40">
         <v>11</v>
@@ -12066,18 +12061,18 @@
         <v>15</v>
       </c>
       <c r="D261" s="21" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E261" s="24"/>
       <c r="F261" s="24"/>
       <c r="G261" s="25" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H261" s="22"/>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A262" s="19" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B262" s="40">
         <v>11</v>
@@ -12086,18 +12081,18 @@
         <v>15</v>
       </c>
       <c r="D262" s="21" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E262" s="24"/>
       <c r="F262" s="24"/>
       <c r="G262" s="25" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H262" s="22"/>
     </row>
     <row r="263" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A263" s="19" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B263" s="40">
         <v>11</v>
@@ -12106,18 +12101,18 @@
         <v>25</v>
       </c>
       <c r="D263" s="21" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E263" s="24"/>
       <c r="F263" s="24"/>
       <c r="G263" s="25" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H263" s="22"/>
     </row>
     <row r="264" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A264" s="19" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B264" s="40">
         <v>11</v>
@@ -12126,18 +12121,18 @@
         <v>25</v>
       </c>
       <c r="D264" s="21" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E264" s="24"/>
       <c r="F264" s="24"/>
       <c r="G264" s="25" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H264" s="22"/>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B265" s="40">
         <v>12</v>
@@ -12147,7 +12142,7 @@
       </c>
       <c r="D265" s="20"/>
       <c r="E265" s="21" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F265" s="20"/>
       <c r="G265" s="23"/>
@@ -12155,7 +12150,7 @@
     </row>
     <row r="266" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A266" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B266" s="40">
         <v>12</v>
@@ -12165,17 +12160,17 @@
       </c>
       <c r="D266" s="7"/>
       <c r="E266" s="28" t="s">
+        <v>547</v>
+      </c>
+      <c r="F266" s="33" t="s">
         <v>548</v>
-      </c>
-      <c r="F266" s="33" t="s">
-        <v>549</v>
       </c>
       <c r="G266" s="32"/>
       <c r="H266" s="10"/>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B267" s="40">
         <v>12</v>
@@ -12185,7 +12180,7 @@
       </c>
       <c r="D267" s="20"/>
       <c r="E267" s="21" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F267" s="20"/>
       <c r="G267" s="23"/>
@@ -12193,7 +12188,7 @@
     </row>
     <row r="268" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A268" s="26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B268" s="40">
         <v>12</v>
@@ -12203,7 +12198,7 @@
       </c>
       <c r="D268" s="7"/>
       <c r="E268" s="34" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F268" s="7"/>
       <c r="G268" s="32"/>
@@ -12211,7 +12206,7 @@
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B269" s="40">
         <v>12</v>
@@ -12221,17 +12216,17 @@
       </c>
       <c r="D269" s="20"/>
       <c r="E269" s="21" t="s">
+        <v>551</v>
+      </c>
+      <c r="F269" s="21" t="s">
         <v>552</v>
-      </c>
-      <c r="F269" s="21" t="s">
-        <v>553</v>
       </c>
       <c r="G269" s="23"/>
       <c r="H269" s="22"/>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B270" s="40">
         <v>12</v>
@@ -12240,20 +12235,20 @@
         <v>75</v>
       </c>
       <c r="D270" s="21" t="s">
+        <v>553</v>
+      </c>
+      <c r="E270" s="21" t="s">
         <v>554</v>
-      </c>
-      <c r="E270" s="21" t="s">
-        <v>555</v>
       </c>
       <c r="F270" s="24"/>
       <c r="G270" s="25" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H270" s="22"/>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B271" s="40">
         <v>12</v>
@@ -12263,7 +12258,7 @@
       </c>
       <c r="D271" s="24"/>
       <c r="E271" s="21" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F271" s="24"/>
       <c r="G271" s="23"/>
@@ -12271,7 +12266,7 @@
     </row>
     <row r="272" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A272" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B272" s="40">
         <v>12</v>
@@ -12280,20 +12275,20 @@
         <v>75</v>
       </c>
       <c r="D272" s="28" t="s">
+        <v>557</v>
+      </c>
+      <c r="E272" s="28" t="s">
         <v>558</v>
       </c>
-      <c r="E272" s="28" t="s">
+      <c r="F272" s="31" t="s">
         <v>559</v>
-      </c>
-      <c r="F272" s="31" t="s">
-        <v>560</v>
       </c>
       <c r="G272" s="32"/>
       <c r="H272" s="10"/>
     </row>
     <row r="273" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A273" s="26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B273" s="40">
         <v>12</v>
@@ -12303,17 +12298,17 @@
       </c>
       <c r="D273" s="7"/>
       <c r="E273" s="28" t="s">
+        <v>560</v>
+      </c>
+      <c r="F273" s="31" t="s">
         <v>561</v>
-      </c>
-      <c r="F273" s="31" t="s">
-        <v>562</v>
       </c>
       <c r="G273" s="32"/>
       <c r="H273" s="10"/>
     </row>
     <row r="274" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A274" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B274" s="40">
         <v>12</v>
@@ -12323,17 +12318,17 @@
       </c>
       <c r="D274" s="12"/>
       <c r="E274" s="28" t="s">
+        <v>562</v>
+      </c>
+      <c r="F274" s="33" t="s">
         <v>563</v>
-      </c>
-      <c r="F274" s="33" t="s">
-        <v>564</v>
       </c>
       <c r="G274" s="32"/>
       <c r="H274" s="10"/>
     </row>
     <row r="275" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A275" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B275" s="40">
         <v>12</v>
@@ -12342,20 +12337,20 @@
         <v>75</v>
       </c>
       <c r="D275" s="28" t="s">
+        <v>564</v>
+      </c>
+      <c r="E275" s="28" t="s">
         <v>565</v>
       </c>
-      <c r="E275" s="28" t="s">
+      <c r="F275" s="31" t="s">
         <v>566</v>
-      </c>
-      <c r="F275" s="31" t="s">
-        <v>567</v>
       </c>
       <c r="G275" s="32"/>
       <c r="H275" s="10"/>
     </row>
     <row r="276" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A276" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B276" s="40">
         <v>12</v>
@@ -12364,20 +12359,20 @@
         <v>75</v>
       </c>
       <c r="D276" s="28" t="s">
+        <v>567</v>
+      </c>
+      <c r="E276" s="28" t="s">
         <v>568</v>
       </c>
-      <c r="E276" s="28" t="s">
+      <c r="F276" s="33" t="s">
         <v>569</v>
-      </c>
-      <c r="F276" s="33" t="s">
-        <v>570</v>
       </c>
       <c r="G276" s="32"/>
       <c r="H276" s="10"/>
     </row>
     <row r="277" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A277" s="26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B277" s="40">
         <v>12</v>
@@ -12386,20 +12381,20 @@
         <v>75</v>
       </c>
       <c r="D277" s="28" t="s">
+        <v>570</v>
+      </c>
+      <c r="E277" s="28" t="s">
         <v>571</v>
       </c>
-      <c r="E277" s="28" t="s">
+      <c r="F277" s="31" t="s">
         <v>572</v>
-      </c>
-      <c r="F277" s="31" t="s">
-        <v>573</v>
       </c>
       <c r="G277" s="32"/>
       <c r="H277" s="10"/>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A278" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B278" s="40">
         <v>12</v>
@@ -12415,7 +12410,7 @@
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A279" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B279" s="40">
         <v>12</v>
@@ -12424,7 +12419,7 @@
         <v>75</v>
       </c>
       <c r="D279" s="21" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E279" s="24"/>
       <c r="F279" s="20"/>
@@ -12433,7 +12428,7 @@
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A280" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B280" s="40">
         <v>12</v>
@@ -12442,7 +12437,7 @@
         <v>75</v>
       </c>
       <c r="D280" s="21" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E280" s="20"/>
       <c r="F280" s="24"/>
@@ -12451,7 +12446,7 @@
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A281" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B281" s="40">
         <v>12</v>
@@ -12460,7 +12455,7 @@
         <v>75</v>
       </c>
       <c r="D281" s="21" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E281" s="24"/>
       <c r="F281" s="20"/>
@@ -12469,7 +12464,7 @@
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A282" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B282" s="40">
         <v>12</v>
@@ -12478,7 +12473,7 @@
         <v>30</v>
       </c>
       <c r="D282" s="21" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E282" s="20"/>
       <c r="F282" s="20"/>
@@ -12487,7 +12482,7 @@
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A283" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B283" s="40">
         <v>12</v>
@@ -12496,7 +12491,7 @@
         <v>30</v>
       </c>
       <c r="D283" s="21" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E283" s="20"/>
       <c r="F283" s="20"/>
@@ -12505,7 +12500,7 @@
     </row>
     <row r="284" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A284" s="26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B284" s="40">
         <v>12</v>
@@ -12514,22 +12509,22 @@
         <v>30</v>
       </c>
       <c r="D284" s="28" t="s">
+        <v>578</v>
+      </c>
+      <c r="E284" s="28" t="s">
         <v>579</v>
       </c>
-      <c r="E284" s="28" t="s">
+      <c r="F284" s="33" t="s">
         <v>580</v>
       </c>
-      <c r="F284" s="33" t="s">
+      <c r="G284" s="30" t="s">
         <v>581</v>
-      </c>
-      <c r="G284" s="30" t="s">
-        <v>582</v>
       </c>
       <c r="H284" s="10"/>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A285" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B285" s="40">
         <v>12</v>
@@ -12545,7 +12540,7 @@
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A286" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B286" s="40">
         <v>12</v>
@@ -12561,7 +12556,7 @@
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A287" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B287" s="40">
         <v>12</v>
@@ -12570,7 +12565,7 @@
         <v>30</v>
       </c>
       <c r="D287" s="21" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E287" s="20"/>
       <c r="F287" s="20"/>
@@ -12579,7 +12574,7 @@
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A288" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B288" s="40">
         <v>12</v>
@@ -12588,7 +12583,7 @@
         <v>30</v>
       </c>
       <c r="D288" s="21" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E288" s="20"/>
       <c r="F288" s="20"/>
@@ -12597,7 +12592,7 @@
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A289" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B289" s="40">
         <v>12</v>
@@ -12606,7 +12601,7 @@
         <v>30</v>
       </c>
       <c r="D289" s="21" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E289" s="20"/>
       <c r="F289" s="20"/>
@@ -12615,7 +12610,7 @@
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A290" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B290" s="40">
         <v>12</v>
@@ -12624,7 +12619,7 @@
         <v>30</v>
       </c>
       <c r="D290" s="21" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E290" s="20"/>
       <c r="F290" s="20"/>
@@ -12633,7 +12628,7 @@
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A291" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B291" s="40">
         <v>12</v>
@@ -12642,20 +12637,20 @@
         <v>30</v>
       </c>
       <c r="D291" s="21" t="s">
+        <v>586</v>
+      </c>
+      <c r="E291" s="21" t="s">
         <v>587</v>
-      </c>
-      <c r="E291" s="21" t="s">
-        <v>588</v>
       </c>
       <c r="F291" s="24"/>
       <c r="G291" s="25" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H291" s="22"/>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A292" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B292" s="40">
         <v>12</v>
@@ -12664,20 +12659,20 @@
         <v>30</v>
       </c>
       <c r="D292" s="21" t="s">
+        <v>589</v>
+      </c>
+      <c r="E292" s="21" t="s">
         <v>590</v>
-      </c>
-      <c r="E292" s="21" t="s">
-        <v>591</v>
       </c>
       <c r="F292" s="24"/>
       <c r="G292" s="25" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H292" s="22"/>
     </row>
     <row r="293" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A293" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B293" s="40">
         <v>12</v>
@@ -12686,20 +12681,20 @@
         <v>30</v>
       </c>
       <c r="D293" s="28" t="s">
+        <v>592</v>
+      </c>
+      <c r="E293" s="37" t="s">
         <v>593</v>
-      </c>
-      <c r="E293" s="37" t="s">
-        <v>594</v>
       </c>
       <c r="F293" s="12"/>
       <c r="G293" s="30" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H293" s="10"/>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A294" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B294" s="40">
         <v>12</v>
@@ -12708,20 +12703,20 @@
         <v>30</v>
       </c>
       <c r="D294" s="21" t="s">
+        <v>595</v>
+      </c>
+      <c r="E294" s="21" t="s">
         <v>596</v>
-      </c>
-      <c r="E294" s="21" t="s">
-        <v>597</v>
       </c>
       <c r="F294" s="24"/>
       <c r="G294" s="25" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H294" s="22"/>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A295" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B295" s="40">
         <v>12</v>
@@ -12730,10 +12725,10 @@
         <v>30</v>
       </c>
       <c r="D295" s="21" t="s">
+        <v>598</v>
+      </c>
+      <c r="E295" s="21" t="s">
         <v>599</v>
-      </c>
-      <c r="E295" s="21" t="s">
-        <v>600</v>
       </c>
       <c r="F295" s="24"/>
       <c r="G295" s="23"/>
@@ -12741,7 +12736,7 @@
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A296" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B296" s="40">
         <v>12</v>
@@ -12750,20 +12745,20 @@
         <v>15</v>
       </c>
       <c r="D296" s="21" t="s">
+        <v>600</v>
+      </c>
+      <c r="E296" s="21" t="s">
         <v>601</v>
       </c>
-      <c r="E296" s="21" t="s">
+      <c r="F296" s="21" t="s">
         <v>602</v>
-      </c>
-      <c r="F296" s="21" t="s">
-        <v>603</v>
       </c>
       <c r="G296" s="23"/>
       <c r="H296" s="22"/>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A297" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B297" s="40">
         <v>12</v>
@@ -12772,20 +12767,20 @@
         <v>15</v>
       </c>
       <c r="D297" s="21" t="s">
+        <v>603</v>
+      </c>
+      <c r="E297" s="21" t="s">
         <v>604</v>
       </c>
-      <c r="E297" s="21" t="s">
+      <c r="F297" s="21" t="s">
         <v>605</v>
-      </c>
-      <c r="F297" s="21" t="s">
-        <v>606</v>
       </c>
       <c r="G297" s="23"/>
       <c r="H297" s="22"/>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A298" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B298" s="40">
         <v>12</v>
@@ -12794,20 +12789,20 @@
         <v>15</v>
       </c>
       <c r="D298" s="21" t="s">
+        <v>606</v>
+      </c>
+      <c r="E298" s="21" t="s">
         <v>607</v>
       </c>
-      <c r="E298" s="21" t="s">
+      <c r="F298" s="21" t="s">
         <v>608</v>
-      </c>
-      <c r="F298" s="21" t="s">
-        <v>609</v>
       </c>
       <c r="G298" s="23"/>
       <c r="H298" s="22"/>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A299" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B299" s="40">
         <v>12</v>
@@ -12816,10 +12811,10 @@
         <v>15</v>
       </c>
       <c r="D299" s="21" t="s">
+        <v>609</v>
+      </c>
+      <c r="E299" s="21" t="s">
         <v>610</v>
-      </c>
-      <c r="E299" s="21" t="s">
-        <v>611</v>
       </c>
       <c r="F299" s="24"/>
       <c r="G299" s="23"/>
@@ -12827,7 +12822,7 @@
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A300" s="19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B300" s="40">
         <v>12</v>
@@ -12836,10 +12831,10 @@
         <v>15</v>
       </c>
       <c r="D300" s="21" t="s">
+        <v>611</v>
+      </c>
+      <c r="E300" s="21" t="s">
         <v>612</v>
-      </c>
-      <c r="E300" s="21" t="s">
-        <v>613</v>
       </c>
       <c r="F300" s="24"/>
       <c r="G300" s="23"/>
@@ -12847,7 +12842,7 @@
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A301" s="19" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B301" s="40">
         <v>12</v>
@@ -12856,10 +12851,10 @@
         <v>15</v>
       </c>
       <c r="D301" s="21" t="s">
+        <v>613</v>
+      </c>
+      <c r="E301" s="21" t="s">
         <v>614</v>
-      </c>
-      <c r="E301" s="21" t="s">
-        <v>615</v>
       </c>
       <c r="F301" s="24"/>
       <c r="G301" s="23"/>
